--- a/Figure7/Fig7 data.xlsx
+++ b/Figure7/Fig7 data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rcsegura/Desktop/PP4_github/Figure7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADE93BFD-9DF4-B846-9D86-E1DD67EFFEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2B0E3D-6DA0-4D41-80F6-7AE9E8702359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{90F03305-DB65-8344-AA17-B8B69DBFD809}"/>
+    <workbookView xWindow="-33640" yWindow="2340" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{90F03305-DB65-8344-AA17-B8B69DBFD809}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Fig 7E, F" sheetId="2" r:id="rId1"/>
     <sheet name="Fig 7E organized" sheetId="5" r:id="rId2"/>
     <sheet name="STATS" sheetId="4" r:id="rId3"/>
+    <sheet name="Kruskal Wallis tests" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="145">
   <si>
     <t>File Name</t>
   </si>
@@ -458,13 +459,28 @@
   </si>
   <si>
     <t>prometaphase</t>
+  </si>
+  <si>
+    <t>H-statistic</t>
+  </si>
+  <si>
+    <t>Kruskal Wallis test</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>Dunn's Test (No Correction)</t>
+  </si>
+  <si>
+    <t>Dunn's test for Multiple Comparisons</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -484,6 +500,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -506,11 +530,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3901,7 +3928,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F5A196-D705-8845-9C4F-859B3AA2E46E}">
   <dimension ref="A1:R7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -4204,4 +4231,323 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDF09031-A382-E346-8A07-196FA3E0C112}">
+  <dimension ref="A1:R9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3">
+        <v>9.7546462158531106</v>
+      </c>
+      <c r="F3">
+        <v>2.0771108927080902E-2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
+      </c>
+      <c r="H6" t="s">
+        <v>118</v>
+      </c>
+      <c r="I6" t="s">
+        <v>119</v>
+      </c>
+      <c r="J6" t="s">
+        <v>120</v>
+      </c>
+      <c r="K6" t="s">
+        <v>121</v>
+      </c>
+      <c r="L6" t="s">
+        <v>122</v>
+      </c>
+      <c r="M6" t="s">
+        <v>123</v>
+      </c>
+      <c r="N6" t="s">
+        <v>124</v>
+      </c>
+      <c r="O6" t="s">
+        <v>125</v>
+      </c>
+      <c r="P6" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>127</v>
+      </c>
+      <c r="R6" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G7" t="s">
+        <v>111</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>11</v>
+      </c>
+      <c r="J7">
+        <v>6.8647032802138996</v>
+      </c>
+      <c r="K7">
+        <v>4.7897294124847196</v>
+      </c>
+      <c r="L7">
+        <v>2.9236907121442601</v>
+      </c>
+      <c r="M7">
+        <v>1.5720231031451599</v>
+      </c>
+      <c r="N7" t="s">
+        <v>130</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>9.8647600000000002E-2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
+      </c>
+      <c r="G8" t="s">
+        <v>111</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
+      </c>
+      <c r="J8">
+        <v>6.8647032802138996</v>
+      </c>
+      <c r="K8">
+        <v>6.8294564827351696</v>
+      </c>
+      <c r="L8">
+        <v>2.9236907121442601</v>
+      </c>
+      <c r="M8">
+        <v>4.2211309115391602</v>
+      </c>
+      <c r="N8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O8" t="s">
+        <v>130</v>
+      </c>
+      <c r="P8" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.69853500000000002</v>
+      </c>
+      <c r="R8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="G9" t="s">
+        <v>111</v>
+      </c>
+      <c r="H9">
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>6.8647032802138996</v>
+      </c>
+      <c r="K9">
+        <v>1.3077405958761801</v>
+      </c>
+      <c r="L9">
+        <v>2.9236907121442601</v>
+      </c>
+      <c r="M9">
+        <v>0.29389234433095601</v>
+      </c>
+      <c r="N9" t="s">
+        <v>130</v>
+      </c>
+      <c r="O9" t="s">
+        <v>130</v>
+      </c>
+      <c r="P9" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1.43059E-2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A5:R5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>